--- a/lesson_8/xlsx_file.xlsx
+++ b/lesson_8/xlsx_file.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,6 +422,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" t="inlineStr"/>
       <c r="B1" t="inlineStr">
         <is>
           <t>id</t>
@@ -567,13 +568,6 @@
       <c r="D7" t="inlineStr">
         <is>
           <t>484441</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Persona 7</t>
         </is>
       </c>
     </row>
